--- a/LubanTools/DesignerConfigs/Datas/T_例子业务逻辑/UIData_GameMode.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/T_例子业务逻辑/UIData_GameMode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25185" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Solo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>Time Trial</t>
+  </si>
+  <si>
+    <t>SelectModeImage01</t>
+  </si>
+  <si>
+    <t>SelectModeIconCup</t>
+  </si>
+  <si>
+    <t>SelectModeImage02</t>
+  </si>
+  <si>
+    <t>SelectModeIconFlag</t>
   </si>
 </sst>
 </file>
@@ -1062,15 +1074,15 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="6.87962962962963" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="13.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="19.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="20.6296296296296" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.8796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1272,17 +1284,17 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.87962962962963" customWidth="1"/>
+    <col min="2" max="2" width="10.3796296296296" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="21.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.3796296296296" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1330,7 +1342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27.6" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1361,10 +1373,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -1381,10 +1393,10 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
